--- a/Code/Results/Cases/Case_0_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_69/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1583908456084373</v>
+        <v>0.2267135318314786</v>
       </c>
       <c r="D2">
-        <v>0.06171024430017269</v>
+        <v>0.02982982747061413</v>
       </c>
       <c r="E2">
-        <v>0.07388264354237606</v>
+        <v>0.1342373667421981</v>
       </c>
       <c r="F2">
-        <v>0.4202741137955215</v>
+        <v>0.6665497032795145</v>
       </c>
       <c r="G2">
-        <v>0.3134404637878632</v>
+        <v>0.5064781280667319</v>
       </c>
       <c r="H2">
-        <v>0.2600337551832936</v>
+        <v>0.6495275335726163</v>
       </c>
       <c r="I2">
-        <v>0.3726279124475766</v>
+        <v>0.6973097984942953</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.412163515169453</v>
+        <v>0.8117677129332037</v>
       </c>
       <c r="L2">
-        <v>0.07295742774542546</v>
+        <v>0.1567507389160845</v>
       </c>
       <c r="M2">
-        <v>0.5819316841467383</v>
+        <v>0.2909352412059008</v>
       </c>
       <c r="N2">
-        <v>0.8808807993783887</v>
+        <v>1.20474878347494</v>
       </c>
       <c r="O2">
-        <v>1.158468410742231</v>
+        <v>2.276973025508013</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.144782617224152</v>
+        <v>0.2242952465281292</v>
       </c>
       <c r="D3">
-        <v>0.05496260490284754</v>
+        <v>0.02754505269187035</v>
       </c>
       <c r="E3">
-        <v>0.06950172390808262</v>
+        <v>0.1340177325350105</v>
       </c>
       <c r="F3">
-        <v>0.3929386718784471</v>
+        <v>0.6654787135903746</v>
       </c>
       <c r="G3">
-        <v>0.2950143216527934</v>
+        <v>0.5069613789251832</v>
       </c>
       <c r="H3">
-        <v>0.2569238180638607</v>
+        <v>0.6535056646909467</v>
       </c>
       <c r="I3">
-        <v>0.354521474119629</v>
+        <v>0.6986251025391113</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.103223719681694</v>
+        <v>0.7147362434391198</v>
       </c>
       <c r="L3">
-        <v>0.07052570785811341</v>
+        <v>0.1573582303633678</v>
       </c>
       <c r="M3">
-        <v>0.5069923921524904</v>
+        <v>0.2690871059606579</v>
       </c>
       <c r="N3">
-        <v>0.8752015385557712</v>
+        <v>1.205771604953711</v>
       </c>
       <c r="O3">
-        <v>1.11254310261036</v>
+        <v>2.286060587160748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1365732703881264</v>
+        <v>0.2229078568501279</v>
       </c>
       <c r="D4">
-        <v>0.0508059085918191</v>
+        <v>0.02613049764488551</v>
       </c>
       <c r="E4">
-        <v>0.06691555655690351</v>
+        <v>0.1339472590345601</v>
       </c>
       <c r="F4">
-        <v>0.3769801361072425</v>
+        <v>0.6652512479300441</v>
       </c>
       <c r="G4">
-        <v>0.2844572242920691</v>
+        <v>0.5076249767163858</v>
       </c>
       <c r="H4">
-        <v>0.2554968285717081</v>
+        <v>0.6562470512049075</v>
       </c>
       <c r="I4">
-        <v>0.3441427304026341</v>
+        <v>0.6998401724891643</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.913325382113868</v>
+        <v>0.655016637315839</v>
       </c>
       <c r="L4">
-        <v>0.06916675973303654</v>
+        <v>0.1578110089507092</v>
       </c>
       <c r="M4">
-        <v>0.4610644337744176</v>
+        <v>0.2557212878434214</v>
       </c>
       <c r="N4">
-        <v>0.8725417443042858</v>
+        <v>1.2068107608657</v>
       </c>
       <c r="O4">
-        <v>1.086949524887885</v>
+        <v>2.293034269777735</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1332626802229697</v>
+        <v>0.2223670729889164</v>
       </c>
       <c r="D5">
-        <v>0.04910834109433182</v>
+        <v>0.02555114554907334</v>
       </c>
       <c r="E5">
-        <v>0.06588653269976419</v>
+        <v>0.1339347532359731</v>
       </c>
       <c r="F5">
-        <v>0.3706732880865005</v>
+        <v>0.6652667180200211</v>
       </c>
       <c r="G5">
-        <v>0.2803347963517169</v>
+        <v>0.5079875740612962</v>
       </c>
       <c r="H5">
-        <v>0.2550319235466105</v>
+        <v>0.6574393683732964</v>
       </c>
       <c r="I5">
-        <v>0.3400898879169638</v>
+        <v>0.7004378056695764</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.835873960072831</v>
+        <v>0.6306465683619251</v>
       </c>
       <c r="L5">
-        <v>0.06864522561172848</v>
+        <v>0.1580155882884995</v>
       </c>
       <c r="M5">
-        <v>0.4423647855608763</v>
+        <v>0.2502873459237378</v>
       </c>
       <c r="N5">
-        <v>0.8716595295793113</v>
+        <v>1.20733790654721</v>
       </c>
       <c r="O5">
-        <v>1.077142562064964</v>
+        <v>2.296226524939073</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1327150043481709</v>
+        <v>0.2222787638300332</v>
       </c>
       <c r="D6">
-        <v>0.04882623185628887</v>
+        <v>0.0254547697683023</v>
       </c>
       <c r="E6">
-        <v>0.065717130764952</v>
+        <v>0.1339336565471356</v>
       </c>
       <c r="F6">
-        <v>0.369637583435555</v>
+        <v>0.6652758198263129</v>
       </c>
       <c r="G6">
-        <v>0.2796608213568703</v>
+        <v>0.5080533479470262</v>
       </c>
       <c r="H6">
-        <v>0.2549616346477208</v>
+        <v>0.6576418937307835</v>
       </c>
       <c r="I6">
-        <v>0.3394273208982206</v>
+        <v>0.7005432325076377</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.823008815025844</v>
+        <v>0.6265979469023648</v>
       </c>
       <c r="L6">
-        <v>0.06856053084994684</v>
+        <v>0.1580507708477654</v>
       </c>
       <c r="M6">
-        <v>0.4392605704821548</v>
+        <v>0.2493858253825465</v>
       </c>
       <c r="N6">
-        <v>0.8715250395504555</v>
+        <v>1.207431709594893</v>
       </c>
       <c r="O6">
-        <v>1.075550808847865</v>
+        <v>2.296777758805291</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.136528484303085</v>
+        <v>0.2229004639787462</v>
       </c>
       <c r="D7">
-        <v>0.05078302983057625</v>
+        <v>0.02612269603888251</v>
       </c>
       <c r="E7">
-        <v>0.06690157970291466</v>
+        <v>0.133947024701417</v>
       </c>
       <c r="F7">
-        <v>0.376894299051898</v>
+        <v>0.6652510186056375</v>
       </c>
       <c r="G7">
-        <v>0.2844009139486303</v>
+        <v>0.5076294937195698</v>
       </c>
       <c r="H7">
-        <v>0.2554900926719199</v>
+        <v>0.6562628267519202</v>
       </c>
       <c r="I7">
-        <v>0.3440873692151456</v>
+        <v>0.699847817404418</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.912281131438391</v>
+        <v>0.6546881086454448</v>
       </c>
       <c r="L7">
-        <v>0.06915959748175737</v>
+        <v>0.1578136867124691</v>
       </c>
       <c r="M7">
-        <v>0.4608121839386499</v>
+        <v>0.2556479516855532</v>
       </c>
       <c r="N7">
-        <v>0.8725290380355801</v>
+        <v>1.206817449938569</v>
       </c>
       <c r="O7">
-        <v>1.086814785505752</v>
+        <v>2.293075902906821</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1536671768791109</v>
+        <v>0.2258595315104799</v>
       </c>
       <c r="D8">
-        <v>0.0593863245468782</v>
+        <v>0.02904448229643464</v>
       </c>
       <c r="E8">
-        <v>0.07234981745835611</v>
+        <v>0.1341482877197642</v>
       </c>
       <c r="F8">
-        <v>0.4106706139258662</v>
+        <v>0.6660911543292869</v>
       </c>
       <c r="G8">
-        <v>0.3069235737619778</v>
+        <v>0.5065685581702084</v>
       </c>
       <c r="H8">
-        <v>0.2588583885782114</v>
+        <v>0.6508372041210393</v>
       </c>
       <c r="I8">
-        <v>0.3662258527468509</v>
+        <v>0.6976787565125306</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.30567545005357</v>
+        <v>0.7783417826204868</v>
       </c>
       <c r="L8">
-        <v>0.07209021823236128</v>
+        <v>0.1569436489400893</v>
       </c>
       <c r="M8">
-        <v>0.5560718248388312</v>
+        <v>0.28339206767712</v>
       </c>
       <c r="N8">
-        <v>0.8787469517682922</v>
+        <v>1.205016294942979</v>
       </c>
       <c r="O8">
-        <v>1.142072825668805</v>
+        <v>2.279817064209311</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1885306469274326</v>
+        <v>0.2324322410625257</v>
       </c>
       <c r="D9">
-        <v>0.07616232571538006</v>
+        <v>0.03468018548072394</v>
       </c>
       <c r="E9">
-        <v>0.08391528546736637</v>
+        <v>0.135052971163578</v>
       </c>
       <c r="F9">
-        <v>0.4839883882976466</v>
+        <v>0.6711524178540813</v>
       </c>
       <c r="G9">
-        <v>0.3575961243452923</v>
+        <v>0.507403388753346</v>
       </c>
       <c r="H9">
-        <v>0.2695164509049306</v>
+        <v>0.6425666678160269</v>
       </c>
       <c r="I9">
-        <v>0.4159358495469831</v>
+        <v>0.6966581842316089</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.076185848807313</v>
+        <v>1.01963119509486</v>
       </c>
       <c r="L9">
-        <v>0.07897176989397536</v>
+        <v>0.1558702632572775</v>
       </c>
       <c r="M9">
-        <v>0.7438007645834261</v>
+        <v>0.338171934971335</v>
       </c>
       <c r="N9">
-        <v>0.8978093927118067</v>
+        <v>1.204734468291235</v>
       </c>
       <c r="O9">
-        <v>1.272635866042123</v>
+        <v>2.264882124864442</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2150506018863041</v>
+        <v>0.2377270509038141</v>
       </c>
       <c r="D10">
-        <v>0.08845001785812912</v>
+        <v>0.03876233709664234</v>
       </c>
       <c r="E10">
-        <v>0.09303580697198655</v>
+        <v>0.1360276850423503</v>
       </c>
       <c r="F10">
-        <v>0.5429539615198919</v>
+        <v>0.6769549459452264</v>
       </c>
       <c r="G10">
-        <v>0.3995275348509608</v>
+        <v>0.509800992707369</v>
       </c>
       <c r="H10">
-        <v>0.2801462089113187</v>
+        <v>0.6379325791645698</v>
       </c>
       <c r="I10">
-        <v>0.456935187289524</v>
+        <v>0.6978802863579219</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.642833084366657</v>
+        <v>1.196101738968252</v>
       </c>
       <c r="L10">
-        <v>0.08482235761238854</v>
+        <v>0.1554672489981073</v>
       </c>
       <c r="M10">
-        <v>0.8826721616377782</v>
+        <v>0.3786300890513559</v>
       </c>
       <c r="N10">
-        <v>0.9164530583451551</v>
+        <v>1.206494310193463</v>
       </c>
       <c r="O10">
-        <v>1.384345222440857</v>
+        <v>2.260666387310721</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2273450953483405</v>
+        <v>0.2402362391518835</v>
       </c>
       <c r="D11">
-        <v>0.09403668360984341</v>
+        <v>0.04060650903184637</v>
       </c>
       <c r="E11">
-        <v>0.09734052675462479</v>
+        <v>0.1365382620066669</v>
       </c>
       <c r="F11">
-        <v>0.5710696997949753</v>
+        <v>0.6800479047081254</v>
       </c>
       <c r="G11">
-        <v>0.4197973922587153</v>
+        <v>0.511280715595916</v>
       </c>
       <c r="H11">
-        <v>0.2856671094555878</v>
+        <v>0.6361371980709407</v>
       </c>
       <c r="I11">
-        <v>0.476709274559397</v>
+        <v>0.6988647284059155</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.901008701965623</v>
+        <v>1.276192870376519</v>
       </c>
       <c r="L11">
-        <v>0.08768069477552842</v>
+        <v>0.1553676191265581</v>
       </c>
       <c r="M11">
-        <v>0.9461459123183573</v>
+        <v>0.397078205163389</v>
       </c>
       <c r="N11">
-        <v>0.9260484865115188</v>
+        <v>1.207719107810505</v>
       </c>
       <c r="O11">
-        <v>1.439121272705194</v>
+        <v>2.260218319144741</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2320367232626808</v>
+        <v>0.2412007871752877</v>
       </c>
       <c r="D12">
-        <v>0.09615217155885603</v>
+        <v>0.0413029780504246</v>
       </c>
       <c r="E12">
-        <v>0.09899478076042456</v>
+        <v>0.1367412445896967</v>
       </c>
       <c r="F12">
-        <v>0.5819183755484048</v>
+        <v>0.6812843437103311</v>
       </c>
       <c r="G12">
-        <v>0.4276602238595899</v>
+        <v>0.5118970957497595</v>
       </c>
       <c r="H12">
-        <v>0.2878631445249766</v>
+        <v>0.6355022631312437</v>
       </c>
       <c r="I12">
-        <v>0.4843720027772349</v>
+        <v>0.6992991303289386</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.998854729962659</v>
+        <v>1.306492873477225</v>
       </c>
       <c r="L12">
-        <v>0.08879351878548647</v>
+        <v>0.1553419239698357</v>
       </c>
       <c r="M12">
-        <v>0.9702329226379121</v>
+        <v>0.4040699178447511</v>
       </c>
       <c r="N12">
-        <v>0.9298517276771037</v>
+        <v>1.208243656920885</v>
       </c>
       <c r="O12">
-        <v>1.460479672233504</v>
+        <v>2.260260140754156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2310246504477078</v>
+        <v>0.2409924166403528</v>
       </c>
       <c r="D13">
-        <v>0.09569655977146851</v>
+        <v>0.04115306511494765</v>
       </c>
       <c r="E13">
-        <v>0.09863740440376034</v>
+        <v>0.1366971003416566</v>
       </c>
       <c r="F13">
-        <v>0.5795726749432859</v>
+        <v>0.6810151543993541</v>
       </c>
       <c r="G13">
-        <v>0.425958249305566</v>
+        <v>0.5117618532681263</v>
       </c>
       <c r="H13">
-        <v>0.2873853883677242</v>
+        <v>0.6356370095861621</v>
       </c>
       <c r="I13">
-        <v>0.4827137080562878</v>
+        <v>0.6992028338117038</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.977777881660188</v>
+        <v>1.29996853694314</v>
       </c>
       <c r="L13">
-        <v>0.08855246345923007</v>
+        <v>0.1553469227960207</v>
       </c>
       <c r="M13">
-        <v>0.965042962942924</v>
+        <v>0.4025638760128203</v>
       </c>
       <c r="N13">
-        <v>0.9290249295878397</v>
+        <v>1.208127988326268</v>
       </c>
       <c r="O13">
-        <v>1.455851592730141</v>
+        <v>2.260241724971195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2277303406436459</v>
+        <v>0.2403153055391982</v>
       </c>
       <c r="D14">
-        <v>0.09421072503388217</v>
+        <v>0.04066384581604865</v>
       </c>
       <c r="E14">
-        <v>0.09747612879568379</v>
+        <v>0.1365547684660839</v>
       </c>
       <c r="F14">
-        <v>0.5719580857836917</v>
+        <v>0.6801483204785868</v>
       </c>
       <c r="G14">
-        <v>0.4204404321949653</v>
+        <v>0.5113303018588198</v>
       </c>
       <c r="H14">
-        <v>0.2858456257211088</v>
+        <v>0.6360840611458798</v>
       </c>
       <c r="I14">
-        <v>0.477336111897344</v>
+        <v>0.6988992320756182</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.909056805683463</v>
+        <v>1.278686257873119</v>
       </c>
       <c r="L14">
-        <v>0.08777162490915913</v>
+        <v>0.155365264044093</v>
       </c>
       <c r="M14">
-        <v>0.9481264995157019</v>
+        <v>0.3976533036423859</v>
       </c>
       <c r="N14">
-        <v>0.9263579251247194</v>
+        <v>1.207761046835159</v>
       </c>
       <c r="O14">
-        <v>1.440865820086174</v>
+        <v>2.260217520273955</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2257172522527782</v>
+        <v>0.2399024246465729</v>
       </c>
       <c r="D15">
-        <v>0.09330061210736318</v>
+        <v>0.04036393913210645</v>
       </c>
       <c r="E15">
-        <v>0.09676801288363635</v>
+        <v>0.1364688406172725</v>
       </c>
       <c r="F15">
-        <v>0.5673207115644843</v>
+        <v>0.6796258512547979</v>
       </c>
       <c r="G15">
-        <v>0.4170854411387523</v>
+        <v>0.5110732652522501</v>
       </c>
       <c r="H15">
-        <v>0.2849164117296539</v>
+        <v>0.6363637444337371</v>
       </c>
       <c r="I15">
-        <v>0.4740653368133536</v>
+        <v>0.6987212912457537</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.866974341107891</v>
+        <v>1.265646441587762</v>
       </c>
       <c r="L15">
-        <v>0.08729736737472393</v>
+        <v>0.1553780654581942</v>
       </c>
       <c r="M15">
-        <v>0.9377715404099121</v>
+        <v>0.3946461799434857</v>
       </c>
       <c r="N15">
-        <v>0.9247466924189922</v>
+        <v>1.207544187720643</v>
       </c>
       <c r="O15">
-        <v>1.431768243292737</v>
+        <v>2.260230241687282</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2142520030198654</v>
+        <v>0.2375650855395151</v>
       </c>
       <c r="D16">
-        <v>0.08808488629259159</v>
+        <v>0.03864155513504386</v>
       </c>
       <c r="E16">
-        <v>0.09275776495193355</v>
+        <v>0.1359956675307998</v>
       </c>
       <c r="F16">
-        <v>0.5411438813147882</v>
+        <v>0.6767619374678517</v>
       </c>
       <c r="G16">
-        <v>0.3982281797813982</v>
+        <v>0.5097121262093225</v>
       </c>
       <c r="H16">
-        <v>0.2797997709829758</v>
+        <v>0.638056201304309</v>
       </c>
       <c r="I16">
-        <v>0.4556666159255442</v>
+        <v>0.6978245730744703</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.62597071476506</v>
+        <v>1.190863677704613</v>
       </c>
       <c r="L16">
-        <v>0.08463969875754884</v>
+        <v>0.1554754440362274</v>
       </c>
       <c r="M16">
-        <v>0.8785306919848068</v>
+        <v>0.3774252986572222</v>
       </c>
       <c r="N16">
-        <v>0.9158491897775463</v>
+        <v>1.206422781183647</v>
       </c>
       <c r="O16">
-        <v>1.380849060508751</v>
+        <v>2.260725256933114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2072794253268597</v>
+        <v>0.2361568961797076</v>
       </c>
       <c r="D17">
-        <v>0.08488468424013007</v>
+        <v>0.0375816197868204</v>
       </c>
       <c r="E17">
-        <v>0.09033871316485431</v>
+        <v>0.135722580978797</v>
       </c>
       <c r="F17">
-        <v>0.5254272804197129</v>
+        <v>0.6751211430593216</v>
       </c>
       <c r="G17">
-        <v>0.3869764818531678</v>
+        <v>0.5089768240835468</v>
       </c>
       <c r="H17">
-        <v>0.276841146721523</v>
+        <v>0.6391745364681327</v>
       </c>
       <c r="I17">
-        <v>0.4446764218496426</v>
+        <v>0.6973842132840034</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.478241823662302</v>
+        <v>1.144937762706434</v>
       </c>
       <c r="L17">
-        <v>0.08306120002593076</v>
+        <v>0.1555566183108752</v>
       </c>
       <c r="M17">
-        <v>0.8422705901632952</v>
+        <v>0.3668716711290259</v>
       </c>
       <c r="N17">
-        <v>0.9106827870660226</v>
+        <v>1.205843305263926</v>
       </c>
       <c r="O17">
-        <v>1.350658020074718</v>
+        <v>2.261405467671523</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2032904927010293</v>
+        <v>0.2353564125794207</v>
       </c>
       <c r="D18">
-        <v>0.08304369973620851</v>
+        <v>0.03697076851771897</v>
       </c>
       <c r="E18">
-        <v>0.0889618872335376</v>
+        <v>0.1355718329114524</v>
       </c>
       <c r="F18">
-        <v>0.5165080977743983</v>
+        <v>0.6742200733602672</v>
       </c>
       <c r="G18">
-        <v>0.3806163199740666</v>
+        <v>0.5085905103653516</v>
       </c>
       <c r="H18">
-        <v>0.2752035007738698</v>
+        <v>0.639847206688998</v>
       </c>
       <c r="I18">
-        <v>0.4384600451978571</v>
+        <v>0.6971712628167808</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.393308750542587</v>
+        <v>1.118504983624803</v>
       </c>
       <c r="L18">
-        <v>0.08217168556524257</v>
+        <v>0.155611186401778</v>
       </c>
       <c r="M18">
-        <v>0.8214425271884807</v>
+        <v>0.3608056245216886</v>
       </c>
       <c r="N18">
-        <v>0.9078154966463359</v>
+        <v>1.205549952416533</v>
       </c>
       <c r="O18">
-        <v>1.333662604763191</v>
+        <v>2.261935032164558</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2019435194271182</v>
+        <v>0.2350870116441399</v>
       </c>
       <c r="D19">
-        <v>0.08242030910784592</v>
+        <v>0.03676373898171192</v>
       </c>
       <c r="E19">
-        <v>0.08849816467186145</v>
+        <v>0.1355218790281576</v>
       </c>
       <c r="F19">
-        <v>0.5135084537398598</v>
+        <v>0.6739223152420877</v>
       </c>
       <c r="G19">
-        <v>0.3784815829008323</v>
+        <v>0.5084659964335998</v>
       </c>
       <c r="H19">
-        <v>0.2746598258633099</v>
+        <v>0.6400800173199741</v>
       </c>
       <c r="I19">
-        <v>0.4363729137305441</v>
+        <v>0.6971060887261515</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.364557520079302</v>
+        <v>1.109552369889684</v>
       </c>
       <c r="L19">
-        <v>0.08187360822520162</v>
+        <v>0.1556310155285558</v>
       </c>
       <c r="M19">
-        <v>0.8143950508475513</v>
+        <v>0.3587524866465586</v>
       </c>
       <c r="N19">
-        <v>0.9068623153287803</v>
+        <v>1.205457497014805</v>
       </c>
       <c r="O19">
-        <v>1.32797036750469</v>
+        <v>2.262138086318657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2080194219846305</v>
+        <v>0.2363058208912463</v>
       </c>
       <c r="D20">
-        <v>0.08522538092708487</v>
+        <v>0.03769457663173625</v>
       </c>
       <c r="E20">
-        <v>0.09059470726095142</v>
+        <v>0.135750997143802</v>
       </c>
       <c r="F20">
-        <v>0.5270877455125245</v>
+        <v>0.6752913919711148</v>
       </c>
       <c r="G20">
-        <v>0.3881625953939647</v>
+        <v>0.5090513082701307</v>
       </c>
       <c r="H20">
-        <v>0.2771494175065499</v>
+        <v>0.6390524417303567</v>
       </c>
       <c r="I20">
-        <v>0.4458353979131218</v>
+        <v>0.6974269160562372</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.493963864417196</v>
+        <v>1.149828470824616</v>
       </c>
       <c r="L20">
-        <v>0.08322731499845304</v>
+        <v>0.1555471617733986</v>
       </c>
       <c r="M20">
-        <v>0.8461276100759605</v>
+        <v>0.3679946995215815</v>
       </c>
       <c r="N20">
-        <v>0.9112218996830563</v>
+        <v>1.20590085906305</v>
       </c>
       <c r="O20">
-        <v>1.353833319747821</v>
+        <v>2.261318740794309</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.228696959606566</v>
+        <v>0.240513800096906</v>
       </c>
       <c r="D21">
-        <v>0.09464714921684703</v>
+        <v>0.04080759265809064</v>
       </c>
       <c r="E21">
-        <v>0.09781655365504704</v>
+        <v>0.1365963133826114</v>
       </c>
       <c r="F21">
-        <v>0.5741890638623559</v>
+        <v>0.6804011609597325</v>
       </c>
       <c r="G21">
-        <v>0.4220559454813468</v>
+        <v>0.5114555372554577</v>
       </c>
       <c r="H21">
-        <v>0.2862949744632743</v>
+        <v>0.6359515319092424</v>
       </c>
       <c r="I21">
-        <v>0.4789107914690618</v>
+        <v>0.6989867350772556</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.929239479558873</v>
+        <v>1.284938175813068</v>
       </c>
       <c r="L21">
-        <v>0.08800013258224482</v>
+        <v>0.1553595502478302</v>
       </c>
       <c r="M21">
-        <v>0.9530938301078606</v>
+        <v>0.3990955035929886</v>
       </c>
       <c r="N21">
-        <v>0.9271366064182871</v>
+        <v>1.207867179894578</v>
       </c>
       <c r="O21">
-        <v>1.445250403360603</v>
+        <v>2.260218888635904</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2424220310924454</v>
+        <v>0.2433476937492003</v>
       </c>
       <c r="D22">
-        <v>0.100804658158907</v>
+        <v>0.0428311606013807</v>
       </c>
       <c r="E22">
-        <v>0.1026781053402495</v>
+        <v>0.1372049449892856</v>
       </c>
       <c r="F22">
-        <v>0.606157258127034</v>
+        <v>0.6841207448737237</v>
       </c>
       <c r="G22">
-        <v>0.4453054052238912</v>
+        <v>0.5133535352297258</v>
       </c>
       <c r="H22">
-        <v>0.2928899062988677</v>
+        <v>0.6341868220801246</v>
       </c>
       <c r="I22">
-        <v>0.5015525437172172</v>
+        <v>0.7003653048190941</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.214198264702077</v>
+        <v>1.373071561342101</v>
       </c>
       <c r="L22">
-        <v>0.09129791730622117</v>
+        <v>0.1553070680745634</v>
       </c>
       <c r="M22">
-        <v>1.023302969141689</v>
+        <v>0.4194553451254066</v>
       </c>
       <c r="N22">
-        <v>0.9385315019407159</v>
+        <v>1.209506234567058</v>
       </c>
       <c r="O22">
-        <v>1.508610464837545</v>
+        <v>2.260732898011184</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2350764029049799</v>
+        <v>0.2418275581263316</v>
       </c>
       <c r="D23">
-        <v>0.09751816221417897</v>
+        <v>0.04175215960966483</v>
       </c>
       <c r="E23">
-        <v>0.1000698341352617</v>
+        <v>0.1368749745397935</v>
       </c>
       <c r="F23">
-        <v>0.588981251871104</v>
+        <v>0.6821007549937903</v>
       </c>
       <c r="G23">
-        <v>0.4327909597382842</v>
+        <v>0.5123106134607696</v>
       </c>
       <c r="H23">
-        <v>0.2893111671822055</v>
+        <v>0.6351047248399624</v>
       </c>
       <c r="I23">
-        <v>0.4893698454711171</v>
+        <v>0.6995966762781762</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.062058548608604</v>
+        <v>1.326049201163471</v>
       </c>
       <c r="L23">
-        <v>0.08952076105776996</v>
+        <v>0.1553286629637185</v>
       </c>
       <c r="M23">
-        <v>0.9858008477590445</v>
+        <v>0.4085859803579837</v>
       </c>
       <c r="N23">
-        <v>0.9323556381909697</v>
+        <v>1.208599138325241</v>
       </c>
       <c r="O23">
-        <v>1.474447172466824</v>
+        <v>2.260345707315736</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2076848083616625</v>
+        <v>0.2362384636685135</v>
       </c>
       <c r="D24">
-        <v>0.08507135555188228</v>
+        <v>0.03764351345101602</v>
       </c>
       <c r="E24">
-        <v>0.09047892910634658</v>
+        <v>0.1357381307167032</v>
       </c>
       <c r="F24">
-        <v>0.5263366875741653</v>
+        <v>0.6752142908497376</v>
       </c>
       <c r="G24">
-        <v>0.3876260163717831</v>
+        <v>0.5090175205275216</v>
       </c>
       <c r="H24">
-        <v>0.2770098516105577</v>
+        <v>0.6391075481691217</v>
       </c>
       <c r="I24">
-        <v>0.4453111080142591</v>
+        <v>0.6974074848561003</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.486855936955237</v>
+        <v>1.147617472981551</v>
       </c>
       <c r="L24">
-        <v>0.08315215855761693</v>
+        <v>0.1555514124665649</v>
       </c>
       <c r="M24">
-        <v>0.8443837947826012</v>
+        <v>0.3674869740705446</v>
       </c>
       <c r="N24">
-        <v>0.9109778469291285</v>
+        <v>1.205874715009841</v>
       </c>
       <c r="O24">
-        <v>1.352396643280173</v>
+        <v>2.261357518602154</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1789507692667485</v>
+        <v>0.2305720847177639</v>
       </c>
       <c r="D25">
-        <v>0.07163212445442468</v>
+        <v>0.03316575085943185</v>
       </c>
       <c r="E25">
-        <v>0.08068355891035139</v>
+        <v>0.1347537203065876</v>
       </c>
       <c r="F25">
-        <v>0.4633177247241775</v>
+        <v>0.6694174410698395</v>
       </c>
       <c r="G25">
-        <v>0.3431178828605823</v>
+        <v>0.5068647121508576</v>
       </c>
       <c r="H25">
-        <v>0.2661664924930278</v>
+        <v>0.6445506451218961</v>
       </c>
       <c r="I25">
-        <v>0.4017501081389696</v>
+        <v>0.6965880580248296</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.867731404661043</v>
+        <v>0.9544918535481486</v>
       </c>
       <c r="L25">
-        <v>0.0769783695060795</v>
+        <v>0.1560929161708771</v>
       </c>
       <c r="M25">
-        <v>0.692878061825482</v>
+        <v>0.323314220886445</v>
       </c>
       <c r="N25">
-        <v>0.8918722488285482</v>
+        <v>1.204464272424644</v>
       </c>
       <c r="O25">
-        <v>1.234713662893057</v>
+        <v>2.267736619077425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_69/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2267135318314786</v>
+        <v>0.1583908456083378</v>
       </c>
       <c r="D2">
-        <v>0.02982982747061413</v>
+        <v>0.06171024430009453</v>
       </c>
       <c r="E2">
-        <v>0.1342373667421981</v>
+        <v>0.07388264354237961</v>
       </c>
       <c r="F2">
-        <v>0.6665497032795145</v>
+        <v>0.4202741137954931</v>
       </c>
       <c r="G2">
-        <v>0.5064781280667319</v>
+        <v>0.3134404637878063</v>
       </c>
       <c r="H2">
-        <v>0.6495275335726163</v>
+        <v>0.2600337551832936</v>
       </c>
       <c r="I2">
-        <v>0.6973097984942953</v>
+        <v>0.3726279124475695</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8117677129332037</v>
+        <v>2.412163515169425</v>
       </c>
       <c r="L2">
-        <v>0.1567507389160845</v>
+        <v>0.07295742774541836</v>
       </c>
       <c r="M2">
-        <v>0.2909352412059008</v>
+        <v>0.5819316841467383</v>
       </c>
       <c r="N2">
-        <v>1.20474878347494</v>
+        <v>0.8808807993784598</v>
       </c>
       <c r="O2">
-        <v>2.276973025508013</v>
+        <v>1.158468410742188</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2242952465281292</v>
+        <v>0.1447826172238393</v>
       </c>
       <c r="D3">
-        <v>0.02754505269187035</v>
+        <v>0.05496260490281202</v>
       </c>
       <c r="E3">
-        <v>0.1340177325350105</v>
+        <v>0.06950172390806841</v>
       </c>
       <c r="F3">
-        <v>0.6654787135903746</v>
+        <v>0.3929386718784471</v>
       </c>
       <c r="G3">
-        <v>0.5069613789251832</v>
+        <v>0.2950143216528431</v>
       </c>
       <c r="H3">
-        <v>0.6535056646909467</v>
+        <v>0.2569238180638607</v>
       </c>
       <c r="I3">
-        <v>0.6986251025391113</v>
+        <v>0.354521474119629</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7147362434391198</v>
+        <v>2.103223719681694</v>
       </c>
       <c r="L3">
-        <v>0.1573582303633678</v>
+        <v>0.07052570785811696</v>
       </c>
       <c r="M3">
-        <v>0.2690871059606579</v>
+        <v>0.5069923921524904</v>
       </c>
       <c r="N3">
-        <v>1.205771604953711</v>
+        <v>0.8752015385557712</v>
       </c>
       <c r="O3">
-        <v>2.286060587160748</v>
+        <v>1.112543102610374</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2229078568501279</v>
+        <v>0.1365732703881122</v>
       </c>
       <c r="D4">
-        <v>0.02613049764488551</v>
+        <v>0.05080590859177647</v>
       </c>
       <c r="E4">
-        <v>0.1339472590345601</v>
+        <v>0.06691555655689996</v>
       </c>
       <c r="F4">
-        <v>0.6652512479300441</v>
+        <v>0.3769801361072425</v>
       </c>
       <c r="G4">
-        <v>0.5076249767163858</v>
+        <v>0.2844572242920691</v>
       </c>
       <c r="H4">
-        <v>0.6562470512049075</v>
+        <v>0.2554968285715944</v>
       </c>
       <c r="I4">
-        <v>0.6998401724891643</v>
+        <v>0.344142730402627</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.655016637315839</v>
+        <v>1.913325382113811</v>
       </c>
       <c r="L4">
-        <v>0.1578110089507092</v>
+        <v>0.06916675973309694</v>
       </c>
       <c r="M4">
-        <v>0.2557212878434214</v>
+        <v>0.4610644337744176</v>
       </c>
       <c r="N4">
-        <v>1.2068107608657</v>
+        <v>0.8725417443042147</v>
       </c>
       <c r="O4">
-        <v>2.293034269777735</v>
+        <v>1.086949524887928</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2223670729889164</v>
+        <v>0.1332626802232681</v>
       </c>
       <c r="D5">
-        <v>0.02555114554907334</v>
+        <v>0.04910834109432471</v>
       </c>
       <c r="E5">
-        <v>0.1339347532359731</v>
+        <v>0.06588653269976419</v>
       </c>
       <c r="F5">
-        <v>0.6652667180200211</v>
+        <v>0.3706732880865076</v>
       </c>
       <c r="G5">
-        <v>0.5079875740612962</v>
+        <v>0.2803347963517311</v>
       </c>
       <c r="H5">
-        <v>0.6574393683732964</v>
+        <v>0.2550319235466105</v>
       </c>
       <c r="I5">
-        <v>0.7004378056695764</v>
+        <v>0.3400898879169674</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6306465683619251</v>
+        <v>1.835873960072917</v>
       </c>
       <c r="L5">
-        <v>0.1580155882884995</v>
+        <v>0.0686452256116965</v>
       </c>
       <c r="M5">
-        <v>0.2502873459237378</v>
+        <v>0.4423647855608621</v>
       </c>
       <c r="N5">
-        <v>1.20733790654721</v>
+        <v>0.8716595295793041</v>
       </c>
       <c r="O5">
-        <v>2.296226524939073</v>
+        <v>1.077142562065049</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2222787638300332</v>
+        <v>0.1327150043483982</v>
       </c>
       <c r="D6">
-        <v>0.0254547697683023</v>
+        <v>0.04882623185616808</v>
       </c>
       <c r="E6">
-        <v>0.1339336565471356</v>
+        <v>0.06571713076498753</v>
       </c>
       <c r="F6">
-        <v>0.6652758198263129</v>
+        <v>0.3696375834355692</v>
       </c>
       <c r="G6">
-        <v>0.5080533479470262</v>
+        <v>0.2796608213568561</v>
       </c>
       <c r="H6">
-        <v>0.6576418937307835</v>
+        <v>0.2549616346477279</v>
       </c>
       <c r="I6">
-        <v>0.7005432325076377</v>
+        <v>0.3394273208982241</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6265979469023648</v>
+        <v>1.823008815025759</v>
       </c>
       <c r="L6">
-        <v>0.1580507708477654</v>
+        <v>0.06856053084987224</v>
       </c>
       <c r="M6">
-        <v>0.2493858253825465</v>
+        <v>0.4392605704821477</v>
       </c>
       <c r="N6">
-        <v>1.207431709594893</v>
+        <v>0.871525039550491</v>
       </c>
       <c r="O6">
-        <v>2.296777758805291</v>
+        <v>1.075550808847836</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2229004639787462</v>
+        <v>0.1365284843033265</v>
       </c>
       <c r="D7">
-        <v>0.02612269603888251</v>
+        <v>0.05078302983046257</v>
       </c>
       <c r="E7">
-        <v>0.133947024701417</v>
+        <v>0.06690157970293242</v>
       </c>
       <c r="F7">
-        <v>0.6652510186056375</v>
+        <v>0.3768942990519122</v>
       </c>
       <c r="G7">
-        <v>0.5076294937195698</v>
+        <v>0.2844009139486303</v>
       </c>
       <c r="H7">
-        <v>0.6562628267519202</v>
+        <v>0.2554900926717991</v>
       </c>
       <c r="I7">
-        <v>0.699847817404418</v>
+        <v>0.3440873692151492</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6546881086454448</v>
+        <v>1.912281131438334</v>
       </c>
       <c r="L7">
-        <v>0.1578136867124691</v>
+        <v>0.06915959748175382</v>
       </c>
       <c r="M7">
-        <v>0.2556479516855532</v>
+        <v>0.4608121839386428</v>
       </c>
       <c r="N7">
-        <v>1.206817449938569</v>
+        <v>0.8725290380355801</v>
       </c>
       <c r="O7">
-        <v>2.293075902906821</v>
+        <v>1.086814785505695</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2258595315104799</v>
+        <v>0.1536671768792814</v>
       </c>
       <c r="D8">
-        <v>0.02904448229643464</v>
+        <v>0.05938632454682846</v>
       </c>
       <c r="E8">
-        <v>0.1341482877197642</v>
+        <v>0.07234981745835256</v>
       </c>
       <c r="F8">
-        <v>0.6660911543292869</v>
+        <v>0.4106706139258662</v>
       </c>
       <c r="G8">
-        <v>0.5065685581702084</v>
+        <v>0.3069235737619778</v>
       </c>
       <c r="H8">
-        <v>0.6508372041210393</v>
+        <v>0.2588583885782114</v>
       </c>
       <c r="I8">
-        <v>0.6976787565125306</v>
+        <v>0.3662258527468438</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7783417826204868</v>
+        <v>2.30567545005357</v>
       </c>
       <c r="L8">
-        <v>0.1569436489400893</v>
+        <v>0.07209021823229378</v>
       </c>
       <c r="M8">
-        <v>0.28339206767712</v>
+        <v>0.5560718248388241</v>
       </c>
       <c r="N8">
-        <v>1.205016294942979</v>
+        <v>0.878746951768278</v>
       </c>
       <c r="O8">
-        <v>2.279817064209311</v>
+        <v>1.142072825668805</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2324322410625257</v>
+        <v>0.188530646927191</v>
       </c>
       <c r="D9">
-        <v>0.03468018548072394</v>
+        <v>0.07616232571545112</v>
       </c>
       <c r="E9">
-        <v>0.135052971163578</v>
+        <v>0.08391528546736637</v>
       </c>
       <c r="F9">
-        <v>0.6711524178540813</v>
+        <v>0.4839883882976324</v>
       </c>
       <c r="G9">
-        <v>0.507403388753346</v>
+        <v>0.3575961243453207</v>
       </c>
       <c r="H9">
-        <v>0.6425666678160269</v>
+        <v>0.2695164509049306</v>
       </c>
       <c r="I9">
-        <v>0.6966581842316089</v>
+        <v>0.415935849546976</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.01963119509486</v>
+        <v>3.076185848807341</v>
       </c>
       <c r="L9">
-        <v>0.1558702632572775</v>
+        <v>0.07897176989384747</v>
       </c>
       <c r="M9">
-        <v>0.338171934971335</v>
+        <v>0.7438007645834404</v>
       </c>
       <c r="N9">
-        <v>1.204734468291235</v>
+        <v>0.8978093927118067</v>
       </c>
       <c r="O9">
-        <v>2.264882124864442</v>
+        <v>1.272635866042094</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2377270509038141</v>
+        <v>0.2150506018860625</v>
       </c>
       <c r="D10">
-        <v>0.03876233709664234</v>
+        <v>0.0884500178582428</v>
       </c>
       <c r="E10">
-        <v>0.1360276850423503</v>
+        <v>0.09303580697197589</v>
       </c>
       <c r="F10">
-        <v>0.6769549459452264</v>
+        <v>0.5429539615199133</v>
       </c>
       <c r="G10">
-        <v>0.509800992707369</v>
+        <v>0.399527534850975</v>
       </c>
       <c r="H10">
-        <v>0.6379325791645698</v>
+        <v>0.2801462089113329</v>
       </c>
       <c r="I10">
-        <v>0.6978802863579219</v>
+        <v>0.456935187289524</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.196101738968252</v>
+        <v>3.6428330843666</v>
       </c>
       <c r="L10">
-        <v>0.1554672489981073</v>
+        <v>0.08482235761239565</v>
       </c>
       <c r="M10">
-        <v>0.3786300890513559</v>
+        <v>0.8826721616377924</v>
       </c>
       <c r="N10">
-        <v>1.206494310193463</v>
+        <v>0.9164530583451835</v>
       </c>
       <c r="O10">
-        <v>2.260666387310721</v>
+        <v>1.384345222440857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2402362391518835</v>
+        <v>0.2273450953483547</v>
       </c>
       <c r="D11">
-        <v>0.04060650903184637</v>
+        <v>0.09403668360984341</v>
       </c>
       <c r="E11">
-        <v>0.1365382620066669</v>
+        <v>0.09734052675462479</v>
       </c>
       <c r="F11">
-        <v>0.6800479047081254</v>
+        <v>0.5710696997950109</v>
       </c>
       <c r="G11">
-        <v>0.511280715595916</v>
+        <v>0.4197973922586868</v>
       </c>
       <c r="H11">
-        <v>0.6361371980709407</v>
+        <v>0.2856671094557015</v>
       </c>
       <c r="I11">
-        <v>0.6988647284059155</v>
+        <v>0.4767092745594113</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.276192870376519</v>
+        <v>3.901008701965566</v>
       </c>
       <c r="L11">
-        <v>0.1553676191265581</v>
+        <v>0.08768069477552842</v>
       </c>
       <c r="M11">
-        <v>0.397078205163389</v>
+        <v>0.9461459123183715</v>
       </c>
       <c r="N11">
-        <v>1.207719107810505</v>
+        <v>0.926048486511462</v>
       </c>
       <c r="O11">
-        <v>2.260218319144741</v>
+        <v>1.439121272705108</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2412007871752877</v>
+        <v>0.2320367232626808</v>
       </c>
       <c r="D12">
-        <v>0.0413029780504246</v>
+        <v>0.09615217155902656</v>
       </c>
       <c r="E12">
-        <v>0.1367412445896967</v>
+        <v>0.09899478076042101</v>
       </c>
       <c r="F12">
-        <v>0.6812843437103311</v>
+        <v>0.5819183755484332</v>
       </c>
       <c r="G12">
-        <v>0.5118970957497595</v>
+        <v>0.4276602238596183</v>
       </c>
       <c r="H12">
-        <v>0.6355022631312437</v>
+        <v>0.2878631445248629</v>
       </c>
       <c r="I12">
-        <v>0.6992991303289386</v>
+        <v>0.4843720027772349</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.306492873477225</v>
+        <v>3.998854729962545</v>
       </c>
       <c r="L12">
-        <v>0.1553419239698357</v>
+        <v>0.0887935187855291</v>
       </c>
       <c r="M12">
-        <v>0.4040699178447511</v>
+        <v>0.9702329226379049</v>
       </c>
       <c r="N12">
-        <v>1.208243656920885</v>
+        <v>0.9298517276770468</v>
       </c>
       <c r="O12">
-        <v>2.260260140754156</v>
+        <v>1.460479672233504</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2409924166403528</v>
+        <v>0.2310246504475941</v>
       </c>
       <c r="D13">
-        <v>0.04115306511494765</v>
+        <v>0.09569655977141167</v>
       </c>
       <c r="E13">
-        <v>0.1366971003416566</v>
+        <v>0.098637404403771</v>
       </c>
       <c r="F13">
-        <v>0.6810151543993541</v>
+        <v>0.5795726749432788</v>
       </c>
       <c r="G13">
-        <v>0.5117618532681263</v>
+        <v>0.4259582493056229</v>
       </c>
       <c r="H13">
-        <v>0.6356370095861621</v>
+        <v>0.2873853883678379</v>
       </c>
       <c r="I13">
-        <v>0.6992028338117038</v>
+        <v>0.4827137080562736</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.29996853694314</v>
+        <v>3.977777881660074</v>
       </c>
       <c r="L13">
-        <v>0.1553469227960207</v>
+        <v>0.08855246345919454</v>
       </c>
       <c r="M13">
-        <v>0.4025638760128203</v>
+        <v>0.965042962942924</v>
       </c>
       <c r="N13">
-        <v>1.208127988326268</v>
+        <v>0.9290249295878397</v>
       </c>
       <c r="O13">
-        <v>2.260241724971195</v>
+        <v>1.455851592730198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2403153055391982</v>
+        <v>0.2277303406441007</v>
       </c>
       <c r="D14">
-        <v>0.04066384581604865</v>
+        <v>0.09421072503359795</v>
       </c>
       <c r="E14">
-        <v>0.1365547684660839</v>
+        <v>0.09747612879570156</v>
       </c>
       <c r="F14">
-        <v>0.6801483204785868</v>
+        <v>0.5719580857836775</v>
       </c>
       <c r="G14">
-        <v>0.5113303018588198</v>
+        <v>0.4204404321949795</v>
       </c>
       <c r="H14">
-        <v>0.6360840611458798</v>
+        <v>0.2858456257211088</v>
       </c>
       <c r="I14">
-        <v>0.6988992320756182</v>
+        <v>0.477336111897344</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.278686257873119</v>
+        <v>3.90905680568352</v>
       </c>
       <c r="L14">
-        <v>0.155365264044093</v>
+        <v>0.08777162490915913</v>
       </c>
       <c r="M14">
-        <v>0.3976533036423859</v>
+        <v>0.948126499515709</v>
       </c>
       <c r="N14">
-        <v>1.207761046835159</v>
+        <v>0.9263579251246625</v>
       </c>
       <c r="O14">
-        <v>2.260217520273955</v>
+        <v>1.440865820086202</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2399024246465729</v>
+        <v>0.225717252252565</v>
       </c>
       <c r="D15">
-        <v>0.04036393913210645</v>
+        <v>0.09330061210714291</v>
       </c>
       <c r="E15">
-        <v>0.1364688406172725</v>
+        <v>0.096768012883647</v>
       </c>
       <c r="F15">
-        <v>0.6796258512547979</v>
+        <v>0.5673207115644985</v>
       </c>
       <c r="G15">
-        <v>0.5110732652522501</v>
+        <v>0.4170854411387523</v>
       </c>
       <c r="H15">
-        <v>0.6363637444337371</v>
+        <v>0.2849164117296681</v>
       </c>
       <c r="I15">
-        <v>0.6987212912457537</v>
+        <v>0.4740653368133536</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.265646441587762</v>
+        <v>3.866974341108005</v>
       </c>
       <c r="L15">
-        <v>0.1553780654581942</v>
+        <v>0.08729736737477367</v>
       </c>
       <c r="M15">
-        <v>0.3946461799434857</v>
+        <v>0.937771540409905</v>
       </c>
       <c r="N15">
-        <v>1.207544187720643</v>
+        <v>0.9247466924190064</v>
       </c>
       <c r="O15">
-        <v>2.260230241687282</v>
+        <v>1.431768243292822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2375650855395151</v>
+        <v>0.2142520030199933</v>
       </c>
       <c r="D16">
-        <v>0.03864155513504386</v>
+        <v>0.08808488629270528</v>
       </c>
       <c r="E16">
-        <v>0.1359956675307998</v>
+        <v>0.09275776495193355</v>
       </c>
       <c r="F16">
-        <v>0.6767619374678517</v>
+        <v>0.5411438813147882</v>
       </c>
       <c r="G16">
-        <v>0.5097121262093225</v>
+        <v>0.3982281797813272</v>
       </c>
       <c r="H16">
-        <v>0.638056201304309</v>
+        <v>0.2797997709829758</v>
       </c>
       <c r="I16">
-        <v>0.6978245730744703</v>
+        <v>0.4556666159255442</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.190863677704613</v>
+        <v>3.62597071476506</v>
       </c>
       <c r="L16">
-        <v>0.1554754440362274</v>
+        <v>0.08463969875757726</v>
       </c>
       <c r="M16">
-        <v>0.3774252986572222</v>
+        <v>0.8785306919847926</v>
       </c>
       <c r="N16">
-        <v>1.206422781183647</v>
+        <v>0.9158491897775889</v>
       </c>
       <c r="O16">
-        <v>2.260725256933114</v>
+        <v>1.380849060508751</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2361568961797076</v>
+        <v>0.2072794253266608</v>
       </c>
       <c r="D17">
-        <v>0.0375816197868204</v>
+        <v>0.08488468424000928</v>
       </c>
       <c r="E17">
-        <v>0.135722580978797</v>
+        <v>0.09033871316485431</v>
       </c>
       <c r="F17">
-        <v>0.6751211430593216</v>
+        <v>0.5254272804197129</v>
       </c>
       <c r="G17">
-        <v>0.5089768240835468</v>
+        <v>0.386976481853182</v>
       </c>
       <c r="H17">
-        <v>0.6391745364681327</v>
+        <v>0.2768411467214094</v>
       </c>
       <c r="I17">
-        <v>0.6973842132840034</v>
+        <v>0.4446764218496213</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.144937762706434</v>
+        <v>3.478241823662302</v>
       </c>
       <c r="L17">
-        <v>0.1555566183108752</v>
+        <v>0.08306120002590234</v>
       </c>
       <c r="M17">
-        <v>0.3668716711290259</v>
+        <v>0.8422705901632881</v>
       </c>
       <c r="N17">
-        <v>1.205843305263926</v>
+        <v>0.9106827870660226</v>
       </c>
       <c r="O17">
-        <v>2.261405467671523</v>
+        <v>1.350658020074718</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2353564125794207</v>
+        <v>0.2032904927011288</v>
       </c>
       <c r="D18">
-        <v>0.03697076851771897</v>
+        <v>0.08304369973626535</v>
       </c>
       <c r="E18">
-        <v>0.1355718329114524</v>
+        <v>0.0889618872335376</v>
       </c>
       <c r="F18">
-        <v>0.6742200733602672</v>
+        <v>0.5165080977743841</v>
       </c>
       <c r="G18">
-        <v>0.5085905103653516</v>
+        <v>0.3806163199741235</v>
       </c>
       <c r="H18">
-        <v>0.639847206688998</v>
+        <v>0.2752035007737419</v>
       </c>
       <c r="I18">
-        <v>0.6971712628167808</v>
+        <v>0.4384600451978642</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.118504983624803</v>
+        <v>3.393308750542587</v>
       </c>
       <c r="L18">
-        <v>0.155611186401778</v>
+        <v>0.08217168556529941</v>
       </c>
       <c r="M18">
-        <v>0.3608056245216886</v>
+        <v>0.8214425271884807</v>
       </c>
       <c r="N18">
-        <v>1.205549952416533</v>
+        <v>0.9078154966463785</v>
       </c>
       <c r="O18">
-        <v>2.261935032164558</v>
+        <v>1.333662604763163</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2350870116441399</v>
+        <v>0.2019435194269903</v>
       </c>
       <c r="D19">
-        <v>0.03676373898171192</v>
+        <v>0.08242030910777487</v>
       </c>
       <c r="E19">
-        <v>0.1355218790281576</v>
+        <v>0.08849816467188276</v>
       </c>
       <c r="F19">
-        <v>0.6739223152420877</v>
+        <v>0.5135084537398598</v>
       </c>
       <c r="G19">
-        <v>0.5084659964335998</v>
+        <v>0.3784815829008465</v>
       </c>
       <c r="H19">
-        <v>0.6400800173199741</v>
+        <v>0.2746598258633099</v>
       </c>
       <c r="I19">
-        <v>0.6971060887261515</v>
+        <v>0.4363729137305441</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.109552369889684</v>
+        <v>3.364557520079188</v>
       </c>
       <c r="L19">
-        <v>0.1556310155285558</v>
+        <v>0.08187360822520873</v>
       </c>
       <c r="M19">
-        <v>0.3587524866465586</v>
+        <v>0.8143950508475513</v>
       </c>
       <c r="N19">
-        <v>1.205457497014805</v>
+        <v>0.9068623153287803</v>
       </c>
       <c r="O19">
-        <v>2.262138086318657</v>
+        <v>1.327970367504719</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2363058208912463</v>
+        <v>0.208019421984261</v>
       </c>
       <c r="D20">
-        <v>0.03769457663173625</v>
+        <v>0.08522538092701382</v>
       </c>
       <c r="E20">
-        <v>0.135750997143802</v>
+        <v>0.09059470726095498</v>
       </c>
       <c r="F20">
-        <v>0.6752913919711148</v>
+        <v>0.5270877455125245</v>
       </c>
       <c r="G20">
-        <v>0.5090513082701307</v>
+        <v>0.3881625953939789</v>
       </c>
       <c r="H20">
-        <v>0.6390524417303567</v>
+        <v>0.2771494175065499</v>
       </c>
       <c r="I20">
-        <v>0.6974269160562372</v>
+        <v>0.4458353979131147</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.149828470824616</v>
+        <v>3.49396386441714</v>
       </c>
       <c r="L20">
-        <v>0.1555471617733986</v>
+        <v>0.08322731499850988</v>
       </c>
       <c r="M20">
-        <v>0.3679946995215815</v>
+        <v>0.8461276100759605</v>
       </c>
       <c r="N20">
-        <v>1.20590085906305</v>
+        <v>0.9112218996829995</v>
       </c>
       <c r="O20">
-        <v>2.261318740794309</v>
+        <v>1.353833319747849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.240513800096906</v>
+        <v>0.2286969596062391</v>
       </c>
       <c r="D21">
-        <v>0.04080759265809064</v>
+        <v>0.09464714921675466</v>
       </c>
       <c r="E21">
-        <v>0.1365963133826114</v>
+        <v>0.09781655365502573</v>
       </c>
       <c r="F21">
-        <v>0.6804011609597325</v>
+        <v>0.5741890638623417</v>
       </c>
       <c r="G21">
-        <v>0.5114555372554577</v>
+        <v>0.4220559454813042</v>
       </c>
       <c r="H21">
-        <v>0.6359515319092424</v>
+        <v>0.2862949744632886</v>
       </c>
       <c r="I21">
-        <v>0.6989867350772556</v>
+        <v>0.4789107914690618</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.284938175813068</v>
+        <v>3.929239479558817</v>
       </c>
       <c r="L21">
-        <v>0.1553595502478302</v>
+        <v>0.08800013258223771</v>
       </c>
       <c r="M21">
-        <v>0.3990955035929886</v>
+        <v>0.9530938301078749</v>
       </c>
       <c r="N21">
-        <v>1.207867179894578</v>
+        <v>0.9271366064182303</v>
       </c>
       <c r="O21">
-        <v>2.260218888635904</v>
+        <v>1.445250403360575</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2433476937492003</v>
+        <v>0.2424220310923317</v>
       </c>
       <c r="D22">
-        <v>0.0428311606013807</v>
+        <v>0.1008046581589142</v>
       </c>
       <c r="E22">
-        <v>0.1372049449892856</v>
+        <v>0.1026781053402495</v>
       </c>
       <c r="F22">
-        <v>0.6841207448737237</v>
+        <v>0.606157258127034</v>
       </c>
       <c r="G22">
-        <v>0.5133535352297258</v>
+        <v>0.4453054052238912</v>
       </c>
       <c r="H22">
-        <v>0.6341868220801246</v>
+        <v>0.2928899062988677</v>
       </c>
       <c r="I22">
-        <v>0.7003653048190941</v>
+        <v>0.5015525437172172</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.373071561342101</v>
+        <v>4.214198264702134</v>
       </c>
       <c r="L22">
-        <v>0.1553070680745634</v>
+        <v>0.0912979173062709</v>
       </c>
       <c r="M22">
-        <v>0.4194553451254066</v>
+        <v>1.023302969141724</v>
       </c>
       <c r="N22">
-        <v>1.209506234567058</v>
+        <v>0.9385315019406448</v>
       </c>
       <c r="O22">
-        <v>2.260732898011184</v>
+        <v>1.508610464837574</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2418275581263316</v>
+        <v>0.2350764029050652</v>
       </c>
       <c r="D23">
-        <v>0.04175215960966483</v>
+        <v>0.09751816221418608</v>
       </c>
       <c r="E23">
-        <v>0.1368749745397935</v>
+        <v>0.100069834135244</v>
       </c>
       <c r="F23">
-        <v>0.6821007549937903</v>
+        <v>0.588981251871104</v>
       </c>
       <c r="G23">
-        <v>0.5123106134607696</v>
+        <v>0.4327909597382131</v>
       </c>
       <c r="H23">
-        <v>0.6351047248399624</v>
+        <v>0.2893111671823192</v>
       </c>
       <c r="I23">
-        <v>0.6995966762781762</v>
+        <v>0.4893698454711171</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.326049201163471</v>
+        <v>4.062058548608661</v>
       </c>
       <c r="L23">
-        <v>0.1553286629637185</v>
+        <v>0.0895207610578268</v>
       </c>
       <c r="M23">
-        <v>0.4085859803579837</v>
+        <v>0.9858008477590374</v>
       </c>
       <c r="N23">
-        <v>1.208599138325241</v>
+        <v>0.9323556381909128</v>
       </c>
       <c r="O23">
-        <v>2.260345707315736</v>
+        <v>1.474447172466824</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2362384636685135</v>
+        <v>0.2076848083611935</v>
       </c>
       <c r="D24">
-        <v>0.03764351345101602</v>
+        <v>0.08507135555188228</v>
       </c>
       <c r="E24">
-        <v>0.1357381307167032</v>
+        <v>0.09047892910634658</v>
       </c>
       <c r="F24">
-        <v>0.6752142908497376</v>
+        <v>0.526336687574144</v>
       </c>
       <c r="G24">
-        <v>0.5090175205275216</v>
+        <v>0.3876260163718115</v>
       </c>
       <c r="H24">
-        <v>0.6391075481691217</v>
+        <v>0.2770098516105577</v>
       </c>
       <c r="I24">
-        <v>0.6974074848561003</v>
+        <v>0.4453111080142449</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.147617472981551</v>
+        <v>3.48685593695518</v>
       </c>
       <c r="L24">
-        <v>0.1555514124665649</v>
+        <v>0.08315215855765246</v>
       </c>
       <c r="M24">
-        <v>0.3674869740705446</v>
+        <v>0.8443837947826012</v>
       </c>
       <c r="N24">
-        <v>1.205874715009841</v>
+        <v>0.9109778469291285</v>
       </c>
       <c r="O24">
-        <v>2.261357518602154</v>
+        <v>1.352396643280201</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2305720847177639</v>
+        <v>0.1789507692667485</v>
       </c>
       <c r="D25">
-        <v>0.03316575085943185</v>
+        <v>0.07163212445465206</v>
       </c>
       <c r="E25">
-        <v>0.1347537203065876</v>
+        <v>0.08068355891035139</v>
       </c>
       <c r="F25">
-        <v>0.6694174410698395</v>
+        <v>0.4633177247241989</v>
       </c>
       <c r="G25">
-        <v>0.5068647121508576</v>
+        <v>0.3431178828606392</v>
       </c>
       <c r="H25">
-        <v>0.6445506451218961</v>
+        <v>0.2661664924930278</v>
       </c>
       <c r="I25">
-        <v>0.6965880580248296</v>
+        <v>0.4017501081389767</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9544918535481486</v>
+        <v>2.8677314046611</v>
       </c>
       <c r="L25">
-        <v>0.1560929161708771</v>
+        <v>0.07697836950602266</v>
       </c>
       <c r="M25">
-        <v>0.323314220886445</v>
+        <v>0.692878061825482</v>
       </c>
       <c r="N25">
-        <v>1.204464272424644</v>
+        <v>0.8918722488284914</v>
       </c>
       <c r="O25">
-        <v>2.267736619077425</v>
+        <v>1.234713662893</v>
       </c>
     </row>
   </sheetData>
